--- a/Bases_de_Dados_(2022-2023)/Brazil Copa do Brasil_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Copa do Brasil_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,12 @@
     <t>Santos</t>
   </si>
   <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>América Mineiro</t>
+  </si>
+  <si>
     <t>Chapecoense</t>
   </si>
   <si>
@@ -370,18 +376,12 @@
     <t>Juventude</t>
   </si>
   <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
     <t>Vasco da Gama</t>
   </si>
   <si>
     <t>Ferroviário</t>
   </si>
   <si>
-    <t>América Mineiro</t>
-  </si>
-  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <t>['17', '34', '77']</t>
+  </si>
+  <si>
+    <t>['-1']</t>
+  </si>
+  <si>
+    <t>['16', '45+2']</t>
   </si>
   <si>
     <t>['52', '55', '84']</t>
@@ -999,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK48"/>
+  <dimension ref="A1:BK51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1225,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1330,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -1410,7 +1416,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1434,7 +1440,7 @@
         <v>146</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1601,7 +1607,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -1625,7 +1631,7 @@
         <v>147</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1983,7 +1989,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -2007,7 +2013,7 @@
         <v>149</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2174,7 +2180,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2198,7 +2204,7 @@
         <v>148</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2365,7 +2371,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2389,7 +2395,7 @@
         <v>150</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2556,7 +2562,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2747,7 +2753,7 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2771,7 +2777,7 @@
         <v>148</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2861,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2962,7 +2968,7 @@
         <v>148</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3153,7 +3159,7 @@
         <v>148</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3320,7 +3326,7 @@
         <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3344,7 +3350,7 @@
         <v>148</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3511,7 +3517,7 @@
         <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3535,7 +3541,7 @@
         <v>152</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -3702,7 +3708,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3726,7 +3732,7 @@
         <v>153</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3816,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3917,7 +3923,7 @@
         <v>154</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4007,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4108,7 +4114,7 @@
         <v>155</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4299,7 +4305,7 @@
         <v>148</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4681,7 +4687,7 @@
         <v>148</v>
       </c>
       <c r="P20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4872,7 +4878,7 @@
         <v>148</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5063,7 +5069,7 @@
         <v>157</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5445,7 +5451,7 @@
         <v>148</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5636,7 +5642,7 @@
         <v>158</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>10</v>
@@ -5827,7 +5833,7 @@
         <v>148</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6209,7 +6215,7 @@
         <v>148</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6591,7 +6597,7 @@
         <v>160</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6782,7 +6788,7 @@
         <v>148</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7164,7 +7170,7 @@
         <v>162</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7355,7 +7361,7 @@
         <v>163</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7546,7 +7552,7 @@
         <v>148</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>10</v>
@@ -7737,7 +7743,7 @@
         <v>164</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>10</v>
@@ -7928,7 +7934,7 @@
         <v>165</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8119,7 +8125,7 @@
         <v>148</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8209,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="AT38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8501,7 +8507,7 @@
         <v>167</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8692,7 +8698,7 @@
         <v>168</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9074,7 +9080,7 @@
         <v>148</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9647,7 +9653,7 @@
         <v>172</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9838,7 +9844,7 @@
         <v>173</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -10171,6 +10177,579 @@
       </c>
       <c r="BK48">
         <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5541159</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>44999.83333333334</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" t="s">
+        <v>141</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>175</v>
+      </c>
+      <c r="P49" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q49">
+        <v>10</v>
+      </c>
+      <c r="R49">
+        <v>5</v>
+      </c>
+      <c r="S49">
+        <v>15</v>
+      </c>
+      <c r="T49">
+        <v>2.6</v>
+      </c>
+      <c r="U49">
+        <v>2.1</v>
+      </c>
+      <c r="V49">
+        <v>4.75</v>
+      </c>
+      <c r="W49">
+        <v>1.44</v>
+      </c>
+      <c r="X49">
+        <v>2.6</v>
+      </c>
+      <c r="Y49">
+        <v>3.1</v>
+      </c>
+      <c r="Z49">
+        <v>1.33</v>
+      </c>
+      <c r="AA49">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB49">
+        <v>1.04</v>
+      </c>
+      <c r="AC49">
+        <v>1.89</v>
+      </c>
+      <c r="AD49">
+        <v>3.38</v>
+      </c>
+      <c r="AE49">
+        <v>3.67</v>
+      </c>
+      <c r="AF49">
+        <v>1.06</v>
+      </c>
+      <c r="AG49">
+        <v>8</v>
+      </c>
+      <c r="AH49">
+        <v>1.35</v>
+      </c>
+      <c r="AI49">
+        <v>3</v>
+      </c>
+      <c r="AJ49">
+        <v>1.98</v>
+      </c>
+      <c r="AK49">
+        <v>1.84</v>
+      </c>
+      <c r="AL49">
+        <v>1.93</v>
+      </c>
+      <c r="AM49">
+        <v>1.83</v>
+      </c>
+      <c r="AN49">
+        <v>1.26</v>
+      </c>
+      <c r="AO49">
+        <v>1.32</v>
+      </c>
+      <c r="AP49">
+        <v>1.65</v>
+      </c>
+      <c r="AQ49">
+        <v>3</v>
+      </c>
+      <c r="AR49">
+        <v>3</v>
+      </c>
+      <c r="AS49">
+        <v>2</v>
+      </c>
+      <c r="AT49">
+        <v>2</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>1.88</v>
+      </c>
+      <c r="AW49">
+        <v>1.88</v>
+      </c>
+      <c r="AX49">
+        <v>1.47</v>
+      </c>
+      <c r="AY49">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ49">
+        <v>3.4</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>1.47</v>
+      </c>
+      <c r="BC49">
+        <v>1.91</v>
+      </c>
+      <c r="BD49">
+        <v>2</v>
+      </c>
+      <c r="BE49">
+        <v>2.45</v>
+      </c>
+      <c r="BF49">
+        <v>5</v>
+      </c>
+      <c r="BG49">
+        <v>6</v>
+      </c>
+      <c r="BH49">
+        <v>14</v>
+      </c>
+      <c r="BI49">
+        <v>12</v>
+      </c>
+      <c r="BJ49">
+        <v>19</v>
+      </c>
+      <c r="BK49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:63">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5548854</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2">
+        <v>44999.83333333334</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>176</v>
+      </c>
+      <c r="P50" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q50">
+        <v>8</v>
+      </c>
+      <c r="R50">
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <v>12</v>
+      </c>
+      <c r="T50">
+        <v>2.2</v>
+      </c>
+      <c r="U50">
+        <v>2.1</v>
+      </c>
+      <c r="V50">
+        <v>6.5</v>
+      </c>
+      <c r="W50">
+        <v>1.38</v>
+      </c>
+      <c r="X50">
+        <v>2.75</v>
+      </c>
+      <c r="Y50">
+        <v>3.1</v>
+      </c>
+      <c r="Z50">
+        <v>1.3</v>
+      </c>
+      <c r="AA50">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB50">
+        <v>1.04</v>
+      </c>
+      <c r="AC50">
+        <v>1.52</v>
+      </c>
+      <c r="AD50">
+        <v>3.64</v>
+      </c>
+      <c r="AE50">
+        <v>4.74</v>
+      </c>
+      <c r="AF50">
+        <v>1.05</v>
+      </c>
+      <c r="AG50">
+        <v>9</v>
+      </c>
+      <c r="AH50">
+        <v>1.33</v>
+      </c>
+      <c r="AI50">
+        <v>3.05</v>
+      </c>
+      <c r="AJ50">
+        <v>2.05</v>
+      </c>
+      <c r="AK50">
+        <v>1.72</v>
+      </c>
+      <c r="AL50">
+        <v>2.07</v>
+      </c>
+      <c r="AM50">
+        <v>1.7</v>
+      </c>
+      <c r="AN50">
+        <v>1.13</v>
+      </c>
+      <c r="AO50">
+        <v>1.26</v>
+      </c>
+      <c r="AP50">
+        <v>2.02</v>
+      </c>
+      <c r="AQ50">
+        <v>3</v>
+      </c>
+      <c r="AR50">
+        <v>3</v>
+      </c>
+      <c r="AS50">
+        <v>3</v>
+      </c>
+      <c r="AT50">
+        <v>1.5</v>
+      </c>
+      <c r="AU50">
+        <v>2.9</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>2.9</v>
+      </c>
+      <c r="AX50">
+        <v>1.31</v>
+      </c>
+      <c r="AY50">
+        <v>9.6</v>
+      </c>
+      <c r="AZ50">
+        <v>4.38</v>
+      </c>
+      <c r="BA50">
+        <v>1.2</v>
+      </c>
+      <c r="BB50">
+        <v>1.38</v>
+      </c>
+      <c r="BC50">
+        <v>2.1</v>
+      </c>
+      <c r="BD50">
+        <v>2.09</v>
+      </c>
+      <c r="BE50">
+        <v>2.71</v>
+      </c>
+      <c r="BF50">
+        <v>10</v>
+      </c>
+      <c r="BG50">
+        <v>3</v>
+      </c>
+      <c r="BH50">
+        <v>10</v>
+      </c>
+      <c r="BI50">
+        <v>8</v>
+      </c>
+      <c r="BJ50">
+        <v>20</v>
+      </c>
+      <c r="BK50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5528457</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2">
+        <v>44999.89583333334</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>175</v>
+      </c>
+      <c r="P51" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q51">
+        <v>7</v>
+      </c>
+      <c r="R51">
+        <v>4</v>
+      </c>
+      <c r="S51">
+        <v>11</v>
+      </c>
+      <c r="T51">
+        <v>1.62</v>
+      </c>
+      <c r="U51">
+        <v>2.75</v>
+      </c>
+      <c r="V51">
+        <v>11</v>
+      </c>
+      <c r="W51">
+        <v>1.34</v>
+      </c>
+      <c r="X51">
+        <v>3.1</v>
+      </c>
+      <c r="Y51">
+        <v>2.49</v>
+      </c>
+      <c r="Z51">
+        <v>1.52</v>
+      </c>
+      <c r="AA51">
+        <v>5.5</v>
+      </c>
+      <c r="AB51">
+        <v>1.13</v>
+      </c>
+      <c r="AC51">
+        <v>1.21</v>
+      </c>
+      <c r="AD51">
+        <v>5.6</v>
+      </c>
+      <c r="AE51">
+        <v>8.75</v>
+      </c>
+      <c r="AF51">
+        <v>1.03</v>
+      </c>
+      <c r="AG51">
+        <v>12.5</v>
+      </c>
+      <c r="AH51">
+        <v>1.2</v>
+      </c>
+      <c r="AI51">
+        <v>4.1</v>
+      </c>
+      <c r="AJ51">
+        <v>1.62</v>
+      </c>
+      <c r="AK51">
+        <v>2.2</v>
+      </c>
+      <c r="AL51">
+        <v>2.15</v>
+      </c>
+      <c r="AM51">
+        <v>1.61</v>
+      </c>
+      <c r="AN51">
+        <v>1.04</v>
+      </c>
+      <c r="AO51">
+        <v>1.13</v>
+      </c>
+      <c r="AP51">
+        <v>3.9</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>1</v>
+      </c>
+      <c r="AS51">
+        <v>2</v>
+      </c>
+      <c r="AT51">
+        <v>0.5</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>1.05</v>
+      </c>
+      <c r="AW51">
+        <v>1.05</v>
+      </c>
+      <c r="AX51">
+        <v>1.1</v>
+      </c>
+      <c r="AY51">
+        <v>13</v>
+      </c>
+      <c r="AZ51">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BA51">
+        <v>1.19</v>
+      </c>
+      <c r="BB51">
+        <v>1.35</v>
+      </c>
+      <c r="BC51">
+        <v>2</v>
+      </c>
+      <c r="BD51">
+        <v>1.98</v>
+      </c>
+      <c r="BE51">
+        <v>2.54</v>
+      </c>
+      <c r="BF51">
+        <v>13</v>
+      </c>
+      <c r="BG51">
+        <v>4</v>
+      </c>
+      <c r="BH51">
+        <v>19</v>
+      </c>
+      <c r="BI51">
+        <v>5</v>
+      </c>
+      <c r="BJ51">
+        <v>32</v>
+      </c>
+      <c r="BK51">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
